--- a/_Notes/eventheads2.xlsx
+++ b/_Notes/eventheads2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -446,6 +446,30 @@
   </si>
   <si>
     <t xml:space="preserve">rachana123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunal Kala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunal.kala@cs.christuniversity.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kunal123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaithra VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaithra.vd@cs.christuniversity.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaithra123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikramsinh Dantkale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vikramsinh.dantkale@mca.christuniversity.in</t>
   </si>
 </sst>
 </file>
@@ -542,22 +566,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="131" zoomScaleNormal="131" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.6377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.219387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.3979591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="3" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.0969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.4387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,6 +1238,48 @@
         <v>141</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="0" t="n">
         <v>13</v>
       </c>
     </row>
